--- a/Excel/Book1.xlsx
+++ b/Excel/Book1.xlsx
@@ -16,13 +16,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +45,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -43,17 +62,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -421,7 +446,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,503 +454,5255 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7.719285714285714" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="6.005" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="6.433571428571429" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="6.290714285714285" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="5.862142857142857" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
-    <col width="13.43357142857143" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="5.290714285714285" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
-    <col width="16.005" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
-    <col width="15.86214285714286" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
-    <col width="11.71928571428571" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
-    <col width="19.14785714285714" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
-    <col width="19.005" bestFit="1" customWidth="1" style="3" min="13" max="13"/>
-    <col width="13.71928571428571" bestFit="1" customWidth="1" style="3" min="14" max="14"/>
-    <col width="9.719285714285713" bestFit="1" customWidth="1" style="3" min="15" max="15"/>
-    <col width="14.005" bestFit="1" customWidth="1" style="3" min="16" max="16"/>
-    <col width="9.290714285714287" bestFit="1" customWidth="1" style="3" min="17" max="17"/>
-    <col width="9.43357142857143" bestFit="1" customWidth="1" style="3" min="18" max="18"/>
-    <col width="21.43357142857143" bestFit="1" customWidth="1" style="3" min="19" max="19"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="20" max="20"/>
-    <col width="10.29071428571429" bestFit="1" customWidth="1" style="3" min="21" max="21"/>
-    <col width="12.29071428571429" bestFit="1" customWidth="1" style="3" min="22" max="22"/>
-    <col width="12.57642857142857" bestFit="1" customWidth="1" style="3" min="23" max="23"/>
-    <col width="9.862142857142858" bestFit="1" customWidth="1" style="3" min="24" max="24"/>
-    <col width="5.005" bestFit="1" customWidth="1" style="3" min="25" max="25"/>
-    <col width="4.719285714285714" bestFit="1" customWidth="1" style="3" min="26" max="26"/>
-    <col width="10.29071428571429" bestFit="1" customWidth="1" style="3" min="27" max="27"/>
-    <col width="10.86214285714286" bestFit="1" customWidth="1" style="3" min="28" max="28"/>
+    <col width="7.719285714285714" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="6.005" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="11.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="6.433571428571429" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="6.290714285714285" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="5.862142857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.43357142857143" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="5.290714285714285" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+    <col width="16.005" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="15.86214285714286" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="11.71928571428571" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
+    <col width="19.14785714285714" bestFit="1" customWidth="1" style="5" min="12" max="12"/>
+    <col width="19.005" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
+    <col width="13.71928571428571" bestFit="1" customWidth="1" style="5" min="14" max="14"/>
+    <col width="9.719285714285713" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
+    <col width="14.005" bestFit="1" customWidth="1" style="4" min="16" max="16"/>
+    <col width="9.290714285714287" bestFit="1" customWidth="1" style="5" min="17" max="17"/>
+    <col width="9.43357142857143" bestFit="1" customWidth="1" style="5" min="18" max="18"/>
+    <col width="21.43357142857143" bestFit="1" customWidth="1" style="4" min="19" max="19"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="20" max="20"/>
+    <col width="10.29071428571429" bestFit="1" customWidth="1" style="5" min="21" max="21"/>
+    <col width="12.29071428571429" bestFit="1" customWidth="1" style="4" min="22" max="22"/>
+    <col width="12.57642857142857" bestFit="1" customWidth="1" style="4" min="23" max="23"/>
+    <col width="9.862142857142858" bestFit="1" customWidth="1" style="4" min="24" max="24"/>
+    <col width="5.005" bestFit="1" customWidth="1" style="4" min="25" max="25"/>
+    <col width="4.719285714285714" bestFit="1" customWidth="1" style="4" min="26" max="26"/>
+    <col width="10.29071428571429" bestFit="1" customWidth="1" style="4" min="27" max="27"/>
+    <col width="10.86214285714286" bestFit="1" customWidth="1" style="4" min="28" max="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="3" t="n"/>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="n"/>
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>teleop</t>
         </is>
       </c>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="4" t="n"/>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>endgame</t>
         </is>
       </c>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="4" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-      <c r="X1" s="3" t="n"/>
-      <c r="Y1" s="3" t="n"/>
-      <c r="Z1" s="3" t="n"/>
-      <c r="AA1" s="3" t="n"/>
-      <c r="AB1" s="3" t="n"/>
+      <c r="V1" s="4" t="n"/>
+      <c r="W1" s="4" t="n"/>
+      <c r="X1" s="4" t="n"/>
+      <c r="Y1" s="4" t="n"/>
+      <c r="Z1" s="4" t="n"/>
+      <c r="AA1" s="4" t="n"/>
+      <c r="AB1" s="4" t="n"/>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Scouter</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>Match Level</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Match</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>Robot</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Team</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>Auto start pos</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>Taxi</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>auto upper score</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>auto lower score</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="2" t="inlineStr">
         <is>
           <t>auto missed</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>teleop upper scored</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>teleop lower scored</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="2" t="inlineStr">
         <is>
           <t>teleop missed</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>defended</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>shooting spots</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
         <is>
           <t>climb</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="2" t="inlineStr">
         <is>
           <t>last climb</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>climb before endgame</t>
         </is>
       </c>
-      <c r="T2" s="3" t="n"/>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>driver skill</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>defence skill</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>avoiding skill</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>shot away</t>
         </is>
       </c>
-      <c r="Y2" s="3" t="inlineStr">
+      <c r="Y2" s="4" t="inlineStr">
         <is>
           <t>died</t>
         </is>
       </c>
-      <c r="Z2" s="3" t="inlineStr">
+      <c r="Z2" s="4" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="AA2" s="3" t="inlineStr">
+      <c r="AA2" s="4" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
       </c>
-      <c r="AB2" s="3" t="inlineStr">
+      <c r="AB2" s="4" t="inlineStr">
         <is>
           <t>confidence</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="3" t="n"/>
-      <c r="U3" s="3" t="n"/>
-      <c r="V3" s="3" t="n"/>
-      <c r="W3" s="3" t="n"/>
-      <c r="X3" s="3" t="n"/>
-      <c r="Y3" s="3" t="n"/>
-      <c r="Z3" s="3" t="n"/>
-      <c r="AA3" s="3" t="n"/>
-      <c r="AB3" s="3" t="n"/>
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="4" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="4" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="4" t="n"/>
+      <c r="W3" s="4" t="n"/>
+      <c r="X3" s="4" t="n"/>
+      <c r="Y3" s="4" t="n"/>
+      <c r="Z3" s="4" t="n"/>
+      <c r="AA3" s="4" t="n"/>
+      <c r="AB3" s="4" t="n"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="3" t="n"/>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="3" t="n"/>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="3" t="n"/>
-      <c r="S4" s="3" t="n"/>
-      <c r="T4" s="3" t="n"/>
-      <c r="U4" s="3" t="n"/>
-      <c r="V4" s="3" t="n"/>
-      <c r="W4" s="3" t="n"/>
-      <c r="X4" s="3" t="n"/>
-      <c r="Y4" s="3" t="n"/>
-      <c r="Z4" s="3" t="n"/>
-      <c r="AA4" s="3" t="n"/>
-      <c r="AB4" s="3" t="n"/>
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="4" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="2" t="n"/>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="4" t="n"/>
+      <c r="W4" s="4" t="n"/>
+      <c r="X4" s="4" t="n"/>
+      <c r="Y4" s="4" t="n"/>
+      <c r="Z4" s="4" t="n"/>
+      <c r="AA4" s="4" t="n"/>
+      <c r="AB4" s="4" t="n"/>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>Ofir</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>2022isde1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>qm</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="3" t="n">
         <v>8223</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>[31]</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="K5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="N5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>[18,32,55,53,28]</t>
         </is>
       </c>
-      <c r="Q5" t="n">
-        <v>3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="Q5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X5" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y5" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z5" s="4" t="inlineStr">
         <is>
           <t>yess</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA5" s="4" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
+      <c r="AB5" s="4" t="n"/>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Ofir</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>2022isde1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>qm</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>b2</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
         <v>8223</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>[31]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="K6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="N6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>[18,32,55,53,28]</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="Q6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="W6" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y6" s="4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z6" s="4" t="inlineStr">
         <is>
           <t>yess</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AA6" s="4" t="inlineStr">
         <is>
           <t>a</t>
+        </is>
+      </c>
+      <c r="AB6" s="4" t="n"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>NEWNEW</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="4" t="n"/>
+      <c r="H7" s="4" t="n"/>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="N7" s="3" t="n"/>
+      <c r="O7" s="4" t="n"/>
+      <c r="P7" s="4" t="n"/>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="3" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="3" t="n"/>
+      <c r="U7" s="3" t="n"/>
+      <c r="V7" s="4" t="n"/>
+      <c r="W7" s="4" t="n"/>
+      <c r="X7" s="4" t="n"/>
+      <c r="Y7" s="4" t="n"/>
+      <c r="Z7" s="4" t="n"/>
+      <c r="AA7" s="4" t="n"/>
+      <c r="AB7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>[26, 19, 51, 24, 15, 25]</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>[39, 35, 31, 48, 5, 26]</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4590</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>[40, 31, 15, 17, 29, 55, 50, 18, 47]</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4590</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>[33, 53, 21, 36]</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>[53, 41, 20, 44, 41, 13, 19, 45, 33]</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>[43, 9, 2, 24, 9, 17, 49, 16, 14]</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>4</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V13" t="n">
+        <v>4</v>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>9</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[12, 16, 8, 40, 1, 34, 51, 55, 20]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5</v>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Red-1</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>7</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[36, 40, 4]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Blue-2</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[4, 12, 38, 6, 14, 30, 49, 43]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4</v>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[34, 20, 1, 53]</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>4590</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[40, 9, 29, 18, 4, 17, 53, 37]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Blue-2</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1690</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[18]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" t="n">
+        <v>7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>[8, 19, 2, 24, 50, 41]</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>3</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1690</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>[24, 37, 39, 22, 40, 37]</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Red-1</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1690</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[25]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>7</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[1, 38, 35, 17]</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Red-1</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[52, 19, 10, 18, 3, 12, 11, 39, 33]</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Blue-2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[25, 47, 37]</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>[37, 18, 14, 52, 21, 21, 21]</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5</v>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Red-1</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>4590</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>8</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>[2, 46, 47, 21, 44, 24, 22, 48, 46]</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>4</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Blue-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>4590</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[51, 3, 50, 28, 47, 25, 4, 44, 51]</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>2</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[28]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>9</v>
+      </c>
+      <c r="M27" t="n">
+        <v>9</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>[3, 26, 47, 48, 4, 42, 50, 29, 36]</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>9</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>[33, 53]</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>[8, 26, 2, 43, 15, 40, 38, 9]</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Red-1</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>[37, 18, 13, 32, 31, 12, 4, 26]</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>8</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>[36, 2, 31, 41, 32, 46, 28, 49, 14]</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Blue-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>7</v>
+      </c>
+      <c r="M32" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>[37, 9]</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>3</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4</v>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Red-1</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1690</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9</v>
+      </c>
+      <c r="M33" t="n">
+        <v>7</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[42, 42, 29, 55, 24, 13, 40, 4]</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3</v>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4590</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[20]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>[1, 50, 51]</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3</v>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Red-1</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[1, 46, 25, 15]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>4</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1690</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[18]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>[54, 28, 29, 6, 25]</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3</v>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[7, 9, 34, 34, 28, 2]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>4</v>
+      </c>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" t="n">
+        <v>8</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>6</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[24, 1, 18]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5</v>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[33, 38, 39, 47, 4, 29]</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2</v>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[18]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[14, 15, 32, 43, 22, 52]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1</v>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>9</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>9</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[45, 48, 34, 19, 14]</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>5</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V41" t="n">
+        <v>2</v>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1690</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>9</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[23, 21, 32]</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5</v>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1577</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[24, 26, 19, 17]</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4</v>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>4590</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>7</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>7</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[51, 16, 22, 48, 38, 44, 48, 5]</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>5</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V44" t="n">
+        <v>5</v>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[26]</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>9</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[24, 10, 27, 46, 22, 17]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>3</v>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Red-2</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>7</v>
+      </c>
+      <c r="K46" t="n">
+        <v>9</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[19, 34, 37, 25, 50, 54, 31]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>4</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V46" t="n">
+        <v>4</v>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>v</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2022isde1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>qm</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Blue-1</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2212</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[23]</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>[51, 18, 26, 12, 27, 30, 31]</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>4</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="V47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>AAA</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>v</t>
         </is>
       </c>
     </row>
